--- a/사이버보안학과_2020.xlsx
+++ b/사이버보안학과_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYOTAEK\Desktop\아주대\2020겨울플젝\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYOTAEK\Desktop\아주대\Programing_Study\AjouYoraming_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C37815-7FE2-4CD9-B7CD-5B966BE3DED1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF97FAE1-98DE-4818-A6D6-D38B36A9431E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="2016" windowWidth="17280" windowHeight="8964" xr2:uid="{AF45A52A-880A-4042-858F-3F3F1B6D5496}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AF45A52A-880A-4042-858F-3F3F1B6D5496}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,39 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="172">
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과목명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학수구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권장이수학년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선수과목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="169">
   <si>
     <t>아주인성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,293 +344,299 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자료구조및실습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운영체제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터네트워크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CYB_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CYB_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CYB_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CYB_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CYB_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CYB_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CYB_7</t>
-  </si>
-  <si>
-    <t>CYB_8</t>
-  </si>
-  <si>
-    <t>CYB_9</t>
-  </si>
-  <si>
-    <t>CYB_10</t>
-  </si>
-  <si>
-    <t>CYB_11</t>
-  </si>
-  <si>
-    <t>CYB_12</t>
-  </si>
-  <si>
-    <t>CYB_13</t>
-  </si>
-  <si>
-    <t>CYB_14</t>
-  </si>
-  <si>
-    <t>CYB_15</t>
-  </si>
-  <si>
-    <t>CYB_16</t>
-  </si>
-  <si>
-    <t>CYB_17</t>
-  </si>
-  <si>
-    <t>CYB_18</t>
-  </si>
-  <si>
-    <t>CYB_19</t>
-  </si>
-  <si>
-    <t>CYB_20</t>
-  </si>
-  <si>
-    <t>CYB_21</t>
-  </si>
-  <si>
-    <t>CYB_22</t>
-  </si>
-  <si>
-    <t>CYB_23</t>
-  </si>
-  <si>
-    <t>CYB_24</t>
-  </si>
-  <si>
-    <t>CYB_25</t>
-  </si>
-  <si>
-    <t>CYB_26</t>
-  </si>
-  <si>
-    <t>CYB_27</t>
-  </si>
-  <si>
-    <t>CYB_28</t>
-  </si>
-  <si>
-    <t>CYB_29</t>
-  </si>
-  <si>
-    <t>CYB_30</t>
-  </si>
-  <si>
-    <t>CYB_31</t>
-  </si>
-  <si>
-    <t>CYB_32</t>
-  </si>
-  <si>
-    <t>CYB_33</t>
-  </si>
-  <si>
-    <t>CYB_34</t>
-  </si>
-  <si>
-    <t>CYB_35</t>
-  </si>
-  <si>
-    <t>CYB_36</t>
-  </si>
-  <si>
-    <t>CYB_37</t>
-  </si>
-  <si>
-    <t>CYB_38</t>
-  </si>
-  <si>
-    <t>CYB_39</t>
-  </si>
-  <si>
-    <t>CYB_40</t>
-  </si>
-  <si>
-    <t>CYB_41</t>
-  </si>
-  <si>
-    <t>CYB_42</t>
-  </si>
-  <si>
-    <t>CYB_43</t>
-  </si>
-  <si>
-    <t>CYB_44</t>
-  </si>
-  <si>
-    <t>CYB_45</t>
-  </si>
-  <si>
-    <t>CYB_46</t>
-  </si>
-  <si>
-    <t>CYB_47</t>
-  </si>
-  <si>
-    <t>CYB_48</t>
-  </si>
-  <si>
-    <t>CYB_49</t>
-  </si>
-  <si>
-    <t>CYB_50</t>
-  </si>
-  <si>
-    <t>CYB_51</t>
-  </si>
-  <si>
-    <t>CYB_52</t>
-  </si>
-  <si>
-    <t>CYB_53</t>
-  </si>
-  <si>
-    <t>CYB_54</t>
-  </si>
-  <si>
-    <t>CYB_55</t>
-  </si>
-  <si>
-    <t>CYB_56</t>
-  </si>
-  <si>
-    <t>CYB_57</t>
-  </si>
-  <si>
-    <t>CYB_58</t>
-  </si>
-  <si>
-    <t>CYB_59</t>
-  </si>
-  <si>
-    <t>CYB_60</t>
-  </si>
-  <si>
-    <t>CYB_61</t>
-  </si>
-  <si>
-    <t>CYB_62</t>
-  </si>
-  <si>
-    <t>CYB_63</t>
-  </si>
-  <si>
-    <t>CYB_64</t>
-  </si>
-  <si>
-    <t>CYB_65</t>
-  </si>
-  <si>
-    <t>CYB_66</t>
-  </si>
-  <si>
-    <t>CYB_67</t>
-  </si>
-  <si>
-    <t>CYB_68</t>
-  </si>
-  <si>
-    <t>CYB_69</t>
-  </si>
-  <si>
-    <t>CYB_70</t>
-  </si>
-  <si>
-    <t>CYB_71</t>
-  </si>
-  <si>
-    <t>CYB_72</t>
-  </si>
-  <si>
-    <t>CYB_73</t>
-  </si>
-  <si>
-    <t>CYB_74</t>
-  </si>
-  <si>
     <t>신설</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>recommendedGrade</t>
+  </si>
+  <si>
+    <t>prerequisite</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>CYB_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYB_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYB_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYB_004</t>
+  </si>
+  <si>
+    <t>CYB_005</t>
+  </si>
+  <si>
+    <t>CYB_006</t>
+  </si>
+  <si>
+    <t>CYB_007</t>
+  </si>
+  <si>
+    <t>CYB_008</t>
+  </si>
+  <si>
+    <t>CYB_009</t>
+  </si>
+  <si>
+    <t>CYB_010</t>
+  </si>
+  <si>
+    <t>CYB_011</t>
+  </si>
+  <si>
+    <t>CYB_012</t>
+  </si>
+  <si>
+    <t>CYB_013</t>
+  </si>
+  <si>
+    <t>CYB_014</t>
+  </si>
+  <si>
+    <t>CYB_015</t>
+  </si>
+  <si>
+    <t>CYB_016</t>
+  </si>
+  <si>
+    <t>CYB_017</t>
+  </si>
+  <si>
+    <t>CYB_018</t>
+  </si>
+  <si>
+    <t>CYB_019</t>
+  </si>
+  <si>
+    <t>CYB_020</t>
+  </si>
+  <si>
+    <t>CYB_021</t>
+  </si>
+  <si>
+    <t>CYB_022</t>
+  </si>
+  <si>
+    <t>CYB_023</t>
+  </si>
+  <si>
+    <t>CYB_024</t>
+  </si>
+  <si>
+    <t>CYB_025</t>
+  </si>
+  <si>
+    <t>CYB_026</t>
+  </si>
+  <si>
+    <t>CYB_027</t>
+  </si>
+  <si>
+    <t>CYB_028</t>
+  </si>
+  <si>
+    <t>CYB_029</t>
+  </si>
+  <si>
+    <t>CYB_030</t>
+  </si>
+  <si>
+    <t>CYB_031</t>
+  </si>
+  <si>
+    <t>CYB_032</t>
+  </si>
+  <si>
+    <t>CYB_033</t>
+  </si>
+  <si>
+    <t>CYB_034</t>
+  </si>
+  <si>
+    <t>CYB_035</t>
+  </si>
+  <si>
+    <t>CYB_036</t>
+  </si>
+  <si>
+    <t>CYB_037</t>
+  </si>
+  <si>
+    <t>CYB_038</t>
+  </si>
+  <si>
+    <t>CYB_039</t>
+  </si>
+  <si>
+    <t>CYB_040</t>
+  </si>
+  <si>
+    <t>CYB_041</t>
+  </si>
+  <si>
+    <t>CYB_042</t>
+  </si>
+  <si>
+    <t>CYB_043</t>
+  </si>
+  <si>
+    <t>CYB_044</t>
+  </si>
+  <si>
+    <t>CYB_045</t>
+  </si>
+  <si>
+    <t>CYB_046</t>
+  </si>
+  <si>
+    <t>CYB_047</t>
+  </si>
+  <si>
+    <t>CYB_048</t>
+  </si>
+  <si>
+    <t>CYB_049</t>
+  </si>
+  <si>
+    <t>CYB_050</t>
+  </si>
+  <si>
+    <t>CYB_051</t>
+  </si>
+  <si>
+    <t>CYB_052</t>
+  </si>
+  <si>
+    <t>CYB_053</t>
+  </si>
+  <si>
+    <t>CYB_054</t>
+  </si>
+  <si>
+    <t>CYB_055</t>
+  </si>
+  <si>
+    <t>CYB_056</t>
+  </si>
+  <si>
+    <t>CYB_057</t>
+  </si>
+  <si>
+    <t>CYB_058</t>
+  </si>
+  <si>
+    <t>CYB_059</t>
+  </si>
+  <si>
+    <t>CYB_060</t>
+  </si>
+  <si>
+    <t>CYB_061</t>
+  </si>
+  <si>
+    <t>CYB_062</t>
+  </si>
+  <si>
+    <t>CYB_063</t>
+  </si>
+  <si>
+    <t>CYB_064</t>
+  </si>
+  <si>
+    <t>CYB_065</t>
+  </si>
+  <si>
+    <t>CYB_066</t>
+  </si>
+  <si>
+    <t>CYB_067</t>
+  </si>
+  <si>
+    <t>CYB_068</t>
+  </si>
+  <si>
+    <t>CYB_069</t>
+  </si>
+  <si>
+    <t>CYB_070</t>
+  </si>
+  <si>
+    <t>CYB_071</t>
+  </si>
+  <si>
+    <t>CYB_072</t>
+  </si>
+  <si>
+    <t>CYB_073</t>
+  </si>
+  <si>
+    <t>CYB_074</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -706,10 +680,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1028,55 +1002,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C037C2-A6D2-4AAD-8137-2CF57EBC028A}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B59" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="20.69921875" customWidth="1"/>
-    <col min="4" max="4" width="13.8984375" customWidth="1"/>
+    <col min="4" max="4" width="13.8984375" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+        <v>89</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1084,16 +1058,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -1101,16 +1075,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>90</v>
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1118,16 +1092,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>90</v>
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1135,16 +1109,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>91</v>
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1152,16 +1126,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -1169,16 +1143,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -1186,16 +1160,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>91</v>
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -1203,16 +1177,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>92</v>
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -1220,16 +1194,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>93</v>
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -1237,16 +1211,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>92</v>
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -1254,136 +1228,136 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>91</v>
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="F13">
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="F14">
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>91</v>
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>91</v>
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>91</v>
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>91</v>
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -1391,16 +1365,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>93</v>
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -1408,16 +1382,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -1425,16 +1399,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -1442,16 +1416,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -1459,19 +1433,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F24">
         <v>4</v>
@@ -1479,16 +1453,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -1496,19 +1470,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F26">
         <v>4</v>
@@ -1516,16 +1490,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -1533,19 +1507,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -1553,16 +1527,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="F29">
         <v>3</v>
@@ -1570,19 +1544,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -1590,19 +1564,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -1610,36 +1584,36 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F32">
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -1647,19 +1621,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -1667,19 +1641,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -1687,19 +1661,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -1707,19 +1681,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -1727,16 +1701,16 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -1744,19 +1718,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -1764,42 +1738,42 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F40">
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -1807,19 +1781,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -1827,16 +1801,16 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F43">
         <v>4</v>
@@ -1844,19 +1818,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -1864,19 +1838,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F45">
         <v>4</v>
@@ -1884,19 +1858,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E46" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="F46">
         <v>4</v>
@@ -1904,16 +1878,16 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F47">
         <v>3</v>
@@ -1921,16 +1895,16 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F48">
         <v>3</v>
@@ -1938,16 +1912,16 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F49">
         <v>6</v>
@@ -1955,16 +1929,16 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F50">
         <v>6</v>
@@ -1972,16 +1946,16 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F51">
         <v>6</v>
@@ -1989,19 +1963,19 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="E52" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F52">
         <v>3</v>
@@ -2009,16 +1983,16 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F53">
         <v>3</v>
@@ -2026,16 +2000,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F54">
         <v>3</v>
@@ -2043,16 +2017,16 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F55">
         <v>3</v>
@@ -2060,16 +2034,16 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F56">
         <v>3</v>
@@ -2077,39 +2051,39 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="E57" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="F57">
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F58">
         <v>3</v>
@@ -2117,16 +2091,16 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F59">
         <v>3</v>
@@ -2134,16 +2108,16 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="F60">
         <v>3</v>
@@ -2151,16 +2125,16 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="F61">
         <v>3</v>
@@ -2168,62 +2142,62 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="E62" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="F62">
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="E63" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F63">
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F64">
         <v>3</v>
@@ -2231,16 +2205,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="F65">
         <v>3</v>
@@ -2248,16 +2222,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>84</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F66">
         <v>3</v>
@@ -2265,16 +2239,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="F67">
         <v>3</v>
@@ -2282,16 +2256,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F68">
         <v>3</v>
@@ -2299,16 +2273,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="F69">
         <v>3</v>
@@ -2316,16 +2290,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F70">
         <v>3</v>
@@ -2333,16 +2307,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="F71">
         <v>3</v>
@@ -2350,16 +2324,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F72">
         <v>3</v>
@@ -2367,16 +2341,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="F73">
         <v>3</v>
@@ -2384,16 +2358,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>84</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F74">
         <v>3</v>
@@ -2401,16 +2375,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>84</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="F75">
         <v>3</v>
